--- a/src/analysis_examples/circadb/results_lomb/cosinor_10541301_tuba8_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10541301_tuba8_.xlsx
@@ -589,51 +589,51 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.22578931108805222, 0.392656427488976]</t>
+          <t>[0.22713601186358479, 0.39130972671344344]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.488448695408096e-07</v>
+        <v>1.150795587712139e-07</v>
       </c>
       <c r="N2" t="n">
-        <v>1.488448695408096e-07</v>
+        <v>1.150795587712139e-07</v>
       </c>
       <c r="O2" t="n">
         <v>-0.8553685703467711</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.1069475616252333, -0.6037895790683088]</t>
+          <t>[-1.1195265111891564, -0.5912106295043857]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>5.618527698647569e-07</v>
+        <v>1.159124521254995e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>5.618527698647569e-07</v>
+        <v>1.159124521254995e-06</v>
       </c>
       <c r="S2" t="n">
         <v>0.4307245040816634</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3887133278591978, 0.472735680304129]</t>
+          <t>[0.3887708453173758, 0.472678162845951]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="V2" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="W2" t="n">
         <v>3.200560560560639</v>
       </c>
       <c r="X2" t="n">
-        <v>2.259219219219275</v>
+        <v>2.212152152152207</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.141901901902004</v>
+        <v>4.188968968969071</v>
       </c>
     </row>
   </sheetData>
